--- a/__Project__/docs/__Project__.xlsx
+++ b/__Project__/docs/__Project__.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29831BDD-5FE4-4CB6-A110-B50D16BC230B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E52E0A8-05E7-4BD4-BD56-2442D95214CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stückliste" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Mechanische Komponenten'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Spezifikationen!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Stückliste!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Stückliste!$1:$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <r>
       <t xml:space="preserve">Nummer
@@ -541,9 +541,6 @@
     </r>
   </si>
   <si>
-    <t>1.00</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Mechanische Komponenten
 </t>
@@ -580,6 +577,59 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">HAL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>HAL</t>
+    </r>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Referenz
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="DINPro"/>
+        <family val="2"/>
+      </rPr>
+      <t>Reference</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">THT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="DINPro"/>
+        <family val="2"/>
+      </rPr>
+      <t>THT</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Bezeichnung / </t>
     </r>
     <r>
@@ -601,31 +651,109 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: __Project__</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">HAL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <t>__Project__</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Datum / </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t>HAL</t>
-    </r>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nicht bestückt / </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Not assembled</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Zubehör / </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Accessories</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kritische Komponente / </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Critical component</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Seit letzter Version geändert / </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Different from previous version</t>
+    </r>
+  </si>
+  <si>
+    <t>BOM-Version:</t>
+  </si>
+  <si>
+    <t>PCB-Version:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -729,8 +857,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -747,6 +906,30 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
   </fills>
@@ -823,7 +1006,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -859,10 +1042,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -872,7 +1051,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -902,19 +1081,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -936,12 +1115,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -955,105 +1128,116 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1078,9 +1262,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1118,9 +1302,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1153,26 +1337,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1205,26 +1372,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1398,15 +1548,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10" style="2" customWidth="1"/>
     <col min="2" max="3" width="22.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" style="5" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" style="3" customWidth="1"/>
@@ -1418,593 +1568,697 @@
     <col min="11" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48.6" customHeight="1">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:11" ht="48.6" customHeight="1">
+      <c r="A1" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="49"/>
-    </row>
-    <row r="2" spans="1:10" s="20" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A2" s="76" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="26"/>
+      <c r="I1"/>
+    </row>
+    <row r="2" spans="1:11" s="18" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A2" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="74"/>
+      <c r="C2" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+    </row>
+    <row r="3" spans="1:11" s="18" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A3" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="68">
+        <f ca="1">TODAY()</f>
+        <v>45157</v>
+      </c>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+    </row>
+    <row r="4" spans="1:11" s="18" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A4" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="76"/>
+      <c r="C4" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77">
-        <f ca="1">TODAY()</f>
-        <v>44262</v>
-      </c>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-    </row>
-    <row r="3" spans="1:10" s="20" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-    </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="D4" s="46"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="1:11" s="18" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A5" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="76"/>
+      <c r="C5" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="46"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="1:11" s="18" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+    </row>
+    <row r="7" spans="1:11" s="4" customFormat="1" ht="38.450000000000003" customHeight="1">
+      <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="13" customFormat="1">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-    </row>
-    <row r="6" spans="1:10" s="13" customFormat="1" ht="15">
-      <c r="A6" s="61"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-    </row>
-    <row r="7" spans="1:10" s="13" customFormat="1" ht="15">
-      <c r="A7" s="61"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-    </row>
-    <row r="8" spans="1:10" s="13" customFormat="1" ht="15">
-      <c r="A8" s="61"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-    </row>
-    <row r="9" spans="1:10" s="13" customFormat="1" ht="15">
-      <c r="A9" s="61"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-    </row>
-    <row r="10" spans="1:10" s="13" customFormat="1" ht="15">
-      <c r="A10" s="61"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-    </row>
-    <row r="11" spans="1:10" s="13" customFormat="1">
-      <c r="A11" s="55"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-    </row>
-    <row r="12" spans="1:10" s="13" customFormat="1">
-      <c r="A12" s="55"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-    </row>
-    <row r="13" spans="1:10" s="13" customFormat="1">
-      <c r="A13" s="55"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-    </row>
-    <row r="14" spans="1:10" s="13" customFormat="1">
-      <c r="A14" s="55"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-    </row>
-    <row r="15" spans="1:10" s="13" customFormat="1">
-      <c r="A15" s="55"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-    </row>
-    <row r="16" spans="1:10" s="13" customFormat="1">
-      <c r="A16" s="55"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-    </row>
-    <row r="17" spans="1:10" s="13" customFormat="1">
-      <c r="A17" s="55"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-    </row>
-    <row r="18" spans="1:10" s="13" customFormat="1">
-      <c r="A18" s="55"/>
-      <c r="B18" s="55"/>
+      <c r="J7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="66"/>
+    </row>
+    <row r="9" spans="1:11" ht="15">
+      <c r="A9" s="54"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="66"/>
+    </row>
+    <row r="10" spans="1:11" ht="15">
+      <c r="A10" s="54"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="66"/>
+    </row>
+    <row r="11" spans="1:11" ht="15">
+      <c r="A11" s="54"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="66"/>
+    </row>
+    <row r="12" spans="1:11" ht="15">
+      <c r="A12" s="54"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="66"/>
+    </row>
+    <row r="13" spans="1:11" ht="15">
+      <c r="A13" s="54"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="66"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="66"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="66"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="66"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="48"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="66"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="55"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="65"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="55"/>
       <c r="F18" s="55"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-    </row>
-    <row r="19" spans="1:10" s="13" customFormat="1">
-      <c r="A19" s="55"/>
-      <c r="B19" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="66"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="55"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="65"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="55"/>
       <c r="F19" s="55"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-    </row>
-    <row r="20" spans="1:10" s="13" customFormat="1">
-      <c r="A20" s="55"/>
-      <c r="B20" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="66"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="55"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="65"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="55"/>
       <c r="F20" s="55"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-    </row>
-    <row r="21" spans="1:10" s="13" customFormat="1">
-      <c r="A21" s="55"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="68"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="66"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="48"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="56"/>
       <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-    </row>
-    <row r="22" spans="1:10" s="13" customFormat="1">
-      <c r="A22" s="55"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-    </row>
-    <row r="23" spans="1:10" s="13" customFormat="1">
-      <c r="A23" s="55"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-    </row>
-    <row r="24" spans="1:10" s="13" customFormat="1">
-      <c r="A24" s="55"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-    </row>
-    <row r="25" spans="1:10" s="13" customFormat="1">
-      <c r="A25" s="55"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-    </row>
-    <row r="26" spans="1:10" s="13" customFormat="1">
-      <c r="A26" s="55"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-    </row>
-    <row r="27" spans="1:10" s="13" customFormat="1">
-      <c r="A27" s="55"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-    </row>
-    <row r="28" spans="1:10" s="13" customFormat="1">
-      <c r="A28" s="55"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-    </row>
-    <row r="29" spans="1:10" s="13" customFormat="1">
-      <c r="A29" s="55"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
-    </row>
-    <row r="30" spans="1:10" s="13" customFormat="1">
-      <c r="A30" s="55"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-    </row>
-    <row r="31" spans="1:10" s="13" customFormat="1">
-      <c r="A31" s="55"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
-    </row>
-    <row r="32" spans="1:10" s="13" customFormat="1">
-      <c r="A32" s="55"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-    </row>
-    <row r="33" spans="1:10" s="13" customFormat="1">
-      <c r="A33" s="55"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="64"/>
-    </row>
-    <row r="34" spans="1:10" s="13" customFormat="1">
-      <c r="A34" s="55"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="64"/>
-    </row>
-    <row r="35" spans="1:10" s="13" customFormat="1">
-      <c r="A35" s="55"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
-    </row>
-    <row r="36" spans="1:10" s="13" customFormat="1">
-      <c r="A36" s="55"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="64"/>
-    </row>
-    <row r="37" spans="1:10" s="13" customFormat="1">
-      <c r="A37" s="55"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="65"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="66"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="66"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="48"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="66"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="48"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="66"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="66"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="66"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="66"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="48"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="66"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="48"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="66"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="48"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="66"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="48"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="66"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="48"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="66"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="48"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="66"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="48"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="66"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="48"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="66"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="48"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="66"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="48"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="55"/>
       <c r="F37" s="55"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="64"/>
-    </row>
-    <row r="38" spans="1:10" s="13" customFormat="1">
-      <c r="A38" s="55"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="64"/>
-      <c r="J38" s="64"/>
-    </row>
-    <row r="39" spans="1:10" s="13" customFormat="1">
-      <c r="A39" s="56"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="60"/>
-      <c r="J39" s="60"/>
-    </row>
-    <row r="40" spans="1:10" s="13" customFormat="1">
-      <c r="A40" s="56"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="60"/>
-    </row>
-    <row r="41" spans="1:10" s="13" customFormat="1">
-      <c r="A41" s="56"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="60"/>
-      <c r="J41" s="60"/>
-    </row>
-    <row r="42" spans="1:10" s="46" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A42" s="45"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="27"/>
-    </row>
-    <row r="43" spans="1:10" s="46" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A43" s="45"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="27"/>
-    </row>
-    <row r="44" spans="1:10" s="43" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A44" s="41"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="42"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="5"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="6"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="66"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="48"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="66"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="48"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="66"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="48"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="66"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="48"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="66"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="49"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="66"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="49"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="66"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="49"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="62"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="66"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="5"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="5"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="5"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="5"/>
-      <c r="D49" s="3"/>
+    <row r="46" spans="1:11" s="42" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A46" s="41"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="25"/>
+    </row>
+    <row r="47" spans="1:11" s="42" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A47" s="69"/>
+      <c r="B47" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="72"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="25"/>
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="1:11" s="39" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A48" s="79"/>
+      <c r="B48" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="73"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="38"/>
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" ht="15">
+      <c r="A49" s="70"/>
+      <c r="B49" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="72"/>
+      <c r="D49" s="72"/>
       <c r="E49" s="6"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
+    <row r="50" spans="1:8" ht="15">
+      <c r="A50" s="71"/>
+      <c r="B50" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="72"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="5"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="5"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="5"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" insertRows="0" deleteRows="0" sort="0"/>
-  <mergeCells count="3">
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:J3"/>
+  <mergeCells count="9">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.59055118110236227" header="0" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="75" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -2019,53 +2273,50 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" style="2" customWidth="1"/>
-    <col min="2" max="3" width="22.7109375" style="14" customWidth="1"/>
+    <col min="2" max="3" width="22.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" style="14" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" style="14" customWidth="1"/>
-    <col min="7" max="16384" width="11.5703125" style="13"/>
+    <col min="5" max="5" width="22.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48.6" customHeight="1">
-      <c r="A1" s="79" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-    </row>
-    <row r="2" spans="1:6" s="20" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A2" s="76" t="str">
+      <c r="A1" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+    </row>
+    <row r="2" spans="1:6" s="18" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A2" s="78" t="str">
         <f>Stückliste!A2</f>
-        <v>Bezeichnung / Name: __Project__</v>
-      </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="53">
+        <v xml:space="preserve">Bezeichnung / Name: </v>
+      </c>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="27">
         <f ca="1">TODAY()</f>
-        <v>44262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="20" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="54" t="str">
-        <f>Stückliste!H3</f>
-        <v>1.00</v>
-      </c>
+        <v>45157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="18" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" s="4" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A4" s="7" t="s">
@@ -2088,300 +2339,300 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="55"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="64"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="57"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="55"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="64"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="57"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="55"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="64"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="57"/>
     </row>
     <row r="8" spans="1:6" ht="15">
-      <c r="A8" s="61"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
     </row>
     <row r="9" spans="1:6" ht="15">
-      <c r="A9" s="61"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
     </row>
     <row r="10" spans="1:6" ht="15">
-      <c r="A10" s="61"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="55"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="55"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="55"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="55"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="55"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="55"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="55"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="55"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="55"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="48"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="55"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="55"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="48"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="55"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="55"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="48"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="55"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="55"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="55"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="48"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="55"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="55"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="48"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="55"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="55"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="55"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="55"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="55"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="55"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="55"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="55"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="55"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="55"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="55"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="55"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="64"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="57"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="55"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="55"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="55"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="48"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="55"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="73"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="61"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="56"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
+      <c r="A39" s="49"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="56"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="56"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="56"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="49"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertRows="0" deleteRows="0" sort="0"/>
@@ -2401,8 +2652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="14.25"/>
@@ -2414,177 +2665,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="48.6" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-    </row>
-    <row r="2" spans="1:4" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A2" s="76" t="str">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+    </row>
+    <row r="2" spans="1:4" s="17" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A2" s="78" t="str">
         <f>Stückliste!A2</f>
-        <v>Bezeichnung / Name: __Project__</v>
-      </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="29">
-        <f ca="1">Stückliste!H2</f>
-        <v>44262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="19" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="80" t="str">
-        <f>Stückliste!H3</f>
-        <v>1.00</v>
-      </c>
+        <v xml:space="preserve">Bezeichnung / Name: </v>
+      </c>
+      <c r="B2" s="78"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="27">
+        <f>Stückliste!H2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="17" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="64"/>
     </row>
     <row r="4" spans="1:4" s="11" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" s="6" customFormat="1" ht="36" customHeight="1">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="1:4" s="6" customFormat="1" ht="36" customHeight="1">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:4" s="6" customFormat="1" ht="36" customHeight="1">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:4" s="6" customFormat="1" ht="36" customHeight="1">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:4" s="6" customFormat="1" ht="36" customHeight="1">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:4" s="6" customFormat="1" ht="36" customHeight="1">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
+      <c r="B10" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
     </row>
     <row r="11" spans="1:4" ht="36" customHeight="1">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
     </row>
     <row r="12" spans="1:4" s="6" customFormat="1" ht="36" customHeight="1">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1" ht="36" customHeight="1">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
     </row>
     <row r="14" spans="1:4" ht="36" customHeight="1">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
     </row>
     <row r="15" spans="1:4" ht="36" customHeight="1">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
     </row>
     <row r="16" spans="1:4" ht="36" customHeight="1">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
-    </row>
-    <row r="17" spans="1:4" s="37" customFormat="1" ht="36" customHeight="1">
-      <c r="A17" s="33" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+    </row>
+    <row r="17" spans="1:4" s="35" customFormat="1" ht="36" customHeight="1">
+      <c r="A17" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
     </row>
     <row r="18" spans="1:4" ht="18" customHeight="1">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
     </row>
     <row r="19" spans="1:4" ht="18" customHeight="1"/>
     <row r="20" spans="1:4" ht="18" customHeight="1"/>

--- a/__Project__/docs/__Project__.xlsx
+++ b/__Project__/docs/__Project__.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E52E0A8-05E7-4BD4-BD56-2442D95214CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEFB041-3649-4E61-9F82-B3BF5A271680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28470" yWindow="315" windowWidth="7185" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stückliste" sheetId="1" r:id="rId1"/>
@@ -1215,29 +1215,29 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1551,7 +1551,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="14.25"/>
@@ -1569,10 +1569,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="48.6" customHeight="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="75"/>
+      <c r="B1" s="73"/>
       <c r="C1" s="43"/>
       <c r="D1" s="44"/>
       <c r="E1" s="43"/>
@@ -1581,7 +1581,7 @@
       <c r="H1" s="26"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:11" s="18" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="2" spans="1:11" s="18" customFormat="1" ht="15">
       <c r="A2" s="74" t="s">
         <v>40</v>
       </c>
@@ -1594,25 +1594,25 @@
       <c r="F2" s="67"/>
       <c r="G2" s="67"/>
     </row>
-    <row r="3" spans="1:11" s="18" customFormat="1" ht="19.899999999999999" customHeight="1">
+    <row r="3" spans="1:11" s="18" customFormat="1" ht="15">
       <c r="A3" s="74" t="s">
         <v>42</v>
       </c>
       <c r="B3" s="74"/>
       <c r="C3" s="68">
         <f ca="1">TODAY()</f>
-        <v>45157</v>
+        <v>45169</v>
       </c>
       <c r="D3" s="65"/>
       <c r="E3" s="65"/>
       <c r="F3" s="65"/>
       <c r="G3" s="65"/>
     </row>
-    <row r="4" spans="1:11" s="18" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A4" s="76" t="s">
+    <row r="4" spans="1:11" s="18" customFormat="1" ht="15">
+      <c r="A4" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="76"/>
+      <c r="B4" s="75"/>
       <c r="C4" s="45" t="s">
         <v>37</v>
       </c>
@@ -1621,11 +1621,11 @@
       <c r="F4" s="45"/>
       <c r="G4" s="30"/>
     </row>
-    <row r="5" spans="1:11" s="18" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A5" s="76" t="s">
+    <row r="5" spans="1:11" s="18" customFormat="1" ht="15">
+      <c r="A5" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="76"/>
+      <c r="B5" s="75"/>
       <c r="C5" s="45" t="s">
         <v>37</v>
       </c>
@@ -2181,31 +2181,31 @@
     </row>
     <row r="47" spans="1:11" s="42" customFormat="1" ht="14.25" customHeight="1">
       <c r="A47" s="69"/>
-      <c r="B47" s="72" t="s">
+      <c r="B47" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="72"/>
-      <c r="D47" s="72"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
       <c r="E47" s="25"/>
       <c r="K47" s="1"/>
     </row>
     <row r="48" spans="1:11" s="39" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A48" s="79"/>
-      <c r="B48" s="73" t="s">
+      <c r="A48" s="72"/>
+      <c r="B48" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="73"/>
-      <c r="D48" s="73"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
       <c r="E48" s="38"/>
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="1:8" ht="15">
       <c r="A49" s="70"/>
-      <c r="B49" s="72" t="s">
+      <c r="B49" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="72"/>
-      <c r="D49" s="72"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="76"/>
       <c r="E49" s="6"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -2213,11 +2213,11 @@
     </row>
     <row r="50" spans="1:8" ht="15">
       <c r="A50" s="71"/>
-      <c r="B50" s="72" t="s">
+      <c r="B50" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="72"/>
-      <c r="D50" s="72"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="76"/>
       <c r="E50" s="6"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -2250,15 +2250,15 @@
   </sheetData>
   <sheetProtection formatCells="0" insertRows="0" deleteRows="0" sort="0"/>
   <mergeCells count="9">
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.59055118110236227" header="0" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="75" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -2287,27 +2287,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48.6" customHeight="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="77"/>
+      <c r="B1" s="78"/>
       <c r="C1" s="43"/>
       <c r="D1" s="44"/>
       <c r="E1" s="43"/>
       <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:6" s="18" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A2" s="78" t="str">
+      <c r="A2" s="79" t="str">
         <f>Stückliste!A2</f>
         <v xml:space="preserve">Bezeichnung / Name: </v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
       <c r="F2" s="27">
         <f ca="1">TODAY()</f>
-        <v>45157</v>
+        <v>45169</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="18" customFormat="1" ht="19.899999999999999" customHeight="1">
@@ -2673,11 +2673,11 @@
       <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" s="17" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A2" s="78" t="str">
+      <c r="A2" s="79" t="str">
         <f>Stückliste!A2</f>
         <v xml:space="preserve">Bezeichnung / Name: </v>
       </c>
-      <c r="B2" s="78"/>
+      <c r="B2" s="79"/>
       <c r="C2" s="30"/>
       <c r="D2" s="27">
         <f>Stückliste!H2</f>
